--- a/textToOps/data/processed/train_test_only_paraphrased.xlsx
+++ b/textToOps/data/processed/train_test_only_paraphrased.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X110"/>
+  <dimension ref="A1:X136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,21 +823,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>What are the land use inside the flood zones in Oleander</t>
+          <t>What are the four fire stations with shortest network-based paths to 1202 Twin Peaks Blvd in San Francisco</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>highway=*, name=Twin Peaks Boulevard, amenity=fire_station</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>done</t>
@@ -850,7 +854,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -870,11 +874,11 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,network analysis,data queries</t>
         </is>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X6" t="b">
         <v>1</v>
@@ -885,25 +889,21 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>What are the vegetation areas larger than 6000 square meters in the Cape Peninsula</t>
+          <t>What are the four fire stations within 3 minutes of travel time from a fire in San Francisco</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nature : glacier, landuse =forest, wetland=mangrove </t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>done</t>
@@ -916,17 +916,29 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -936,11 +948,11 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X7" t="b">
         <v>1</v>
@@ -951,16 +963,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>What are the vote totals of an election for each precinct in Dallas</t>
+          <t>What are the land use inside the flood zones in Oleander</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -973,15 +985,19 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -994,11 +1010,11 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="X8" t="b">
         <v>1</v>
@@ -1009,27 +1025,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>What area are within 50 km from family physician services in Saskatchewan</t>
+          <t>What are the two fire stations closest to each school in Utrecht</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>amenity=doctor</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1044,12 +1056,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -1064,11 +1076,11 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,data queries</t>
         </is>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X9" t="b">
         <v>1</v>
@@ -1079,23 +1091,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>What areas are at least 3000 meters from the rivers in Spain</t>
+          <t>What are the vegetation areas larger than 6000 square meters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>waterway=river</t>
+          <t xml:space="preserve">nature : glacier, landuse =forest, wetland=mangrove </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1110,12 +1122,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1130,11 +1142,11 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X10" t="b">
         <v>1</v>
@@ -1145,25 +1157,21 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>What areas are inside 1000 foot of schools in El Cajon</t>
+          <t>What are the vote totals of an election for each precinct in Dallas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>amenity=school, amenity=kindergarten</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>done</t>
@@ -1171,19 +1179,15 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1196,11 +1200,11 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X11" t="b">
         <v>1</v>
@@ -1211,21 +1215,29 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>What areas are more than 5000 meters from the roads in Spain</t>
+          <t>What area are within 50 km from family physician services in Saskatchewan</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>amenity=doctor</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>done</t>
@@ -1273,23 +1285,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>What areas are not park in Houston</t>
+          <t>What areas are at least 3000 meters from the rivers in Spain</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>leisure=park</t>
+          <t>waterway=river</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1302,8 +1314,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1316,11 +1336,11 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="X13" t="b">
         <v>1</v>
@@ -1331,23 +1351,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>What areas are not wetlands in Houston</t>
+          <t>What areas are inside 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>natural=wetland</t>
+          <t>amenity=school, amenity=kindergarten</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1360,8 +1380,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1374,11 +1402,11 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="X14" t="b">
         <v>1</v>
@@ -1389,25 +1417,21 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from hospitals in Houston</t>
+          <t>What areas are more than 5000 meters from the roads in Spain</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>amenity=hospital</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>done</t>
@@ -1455,11 +1479,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from schools in Houston</t>
+          <t>What areas are not flood plain in Houston</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1469,11 +1493,7 @@
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>amenity=school</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>done</t>
@@ -1486,14 +1506,10 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -1506,11 +1522,11 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X16" t="b">
         <v>1</v>
@@ -1521,11 +1537,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
+          <t>What areas are not green belt areas in Houston</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1535,11 +1551,7 @@
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>leisure=nature_reserve</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>done</t>
@@ -1552,14 +1564,10 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1572,11 +1580,11 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X17" t="b">
         <v>1</v>
@@ -1587,23 +1595,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
+          <t>What areas are not park in Houston</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>residential=*</t>
+          <t>leisure=park</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1616,16 +1624,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -1638,11 +1638,11 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="W18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X18" t="b">
         <v>1</v>
@@ -1653,11 +1653,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>What areas are outside 300 meters from streams in Houston</t>
+          <t>What areas are not wetlands in Houston</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1669,7 +1669,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>waterway=stream</t>
+          <t>natural=wetland</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1682,16 +1682,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1704,11 +1696,11 @@
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="W19" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X19" t="b">
         <v>1</v>
@@ -1719,23 +1711,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>What areas are outside 3000 meters of the rivers in Spain</t>
+          <t>What areas are outside 150 meters from hospitals in Houston</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>waterway=river</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1785,27 +1777,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>What areas are outside 5 km of water bodies in Assam</t>
+          <t>What areas are outside 150 meters from schools in Houston</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1855,23 +1843,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>What areas are outside 5000 meters of the roads in Spain</t>
+          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>leisure=nature_reserve</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1921,16 +1909,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from residence in Houston</t>
+          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1987,11 +1975,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from water body in Houston</t>
+          <t>What areas are outside 300 meters from streams in Houston</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2003,7 +1991,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>waterway=stream</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2053,23 +2041,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>What areas are within 10 miles of current transmission lines with a voltage greater than 400 in Colorado</t>
+          <t>What areas are outside 3000 meters of the rivers in Spain</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>power=line</t>
+          <t>waterway=river</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2119,23 +2107,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>What areas are within 100 meters of cameras in Salford</t>
+          <t>What areas are outside 5 km of water bodies in Assam</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Salford</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>man_made=surveillance, highway=speed_camera</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2185,23 +2177,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>What areas are within 100 meters of the hospitals in Oleander</t>
+          <t>What areas are outside 5000 meters of the roads in Spain</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2251,27 +2243,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">What areas are within 1000 meters of roads in Assam </t>
+          <t>What areas are outside 60 meters from residence in Houston</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>residential=*</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2321,23 +2309,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the arcades in Oleander</t>
+          <t>What areas are outside 60 meters from water body in Houston</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>leisure=amusement_arcade</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2387,23 +2375,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the major transport routes in Amsterdam</t>
+          <t>What areas are within 10 miles of current transmission lines with a voltage greater than 400 in Colorado</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>power=line</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2453,23 +2441,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the schools in Oleander</t>
+          <t>What areas are within 100 meters of cameras in Salford</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Salford</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>man_made=surveillance, highway=speed_camera</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2519,27 +2507,23 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">What areas are within 15 minutes walking distance of a metro rail station in Kochi </t>
+          <t>What areas are within 100 meters of the hospitals in Oleander</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Kochi</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>highway=*,railway=station,station=subway</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2554,24 +2538,16 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
@@ -2582,11 +2558,11 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X32" t="b">
         <v>1</v>
@@ -2597,23 +2573,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>What areas are within 20 minutes driving time from flower stores in Oleander</t>
+          <t xml:space="preserve">What areas are within 1000 meters of roads in Assam </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>shop=florist</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2628,24 +2608,16 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
@@ -2656,11 +2628,11 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X33" t="b">
         <v>1</v>
@@ -2671,11 +2643,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
+          <t>What areas are within 1000 meters of the arcades in Oleander</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2687,7 +2659,7 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>leisure=playground</t>
+          <t>leisure=amusement_arcade</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2737,23 +2709,23 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>What areas are within 300 meters of runways in Schiphol airport</t>
+          <t>What areas are within 1000 meters of the major transport routes in Amsterdam</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Schiphol airport</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>aeroway=runway</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2803,23 +2775,23 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
+          <t>What areas are within 1000 meters of the schools in Oleander</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>landuse=religious</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2869,23 +2841,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
+          <t xml:space="preserve">What areas are within 15 minutes walking distance of a metro rail station in Kochi </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>Kochi</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>amenity=university</t>
+          <t>highway=*,railway=station,station=subway</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2900,16 +2876,24 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
@@ -2920,11 +2904,11 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W37" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X37" t="b">
         <v>1</v>
@@ -2935,23 +2919,23 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
+          <t>What areas are within 20 minutes driving time from flower stores in Oleander</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> aeroway=*</t>
+          <t>shop=florist</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3009,23 +2993,23 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>What areas are within 800 meter from major highways in Houston</t>
+          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>leisure=playground</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3075,25 +3059,21 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
+          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>amenity=restaurant</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
           <t>done</t>
@@ -3106,18 +3086,34 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
@@ -3126,11 +3122,11 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W40" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="X40" t="b">
         <v>1</v>
@@ -3141,23 +3137,23 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a store in Gresham</t>
+          <t>What areas are within 300 meters of runways in Schiphol airport</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Schiphol airport</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>shop=*</t>
+          <t>aeroway=runway</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3207,23 +3203,23 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
+          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>railway=tram_stop, light_rail</t>
+          <t>landuse=religious</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3273,27 +3269,23 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>What areas are within one mile of main roads in Loudoun County in US</t>
+          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Karbala, Iraq</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>amenity=university</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3343,21 +3335,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
+          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Crook, Deschutes, Jefferson county</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> aeroway=*</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>done</t>
@@ -3365,22 +3361,22 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
           <t>classification</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3398,11 +3394,11 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W44" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="X44" t="b">
         <v>1</v>
@@ -3413,21 +3409,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>What areas do have slope larger than 10 percent in Spain</t>
+          <t>What areas are within 800 meter from major highways in Houston</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>highway=motorway</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
           <t>done</t>
@@ -3435,29 +3435,21 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
@@ -3468,11 +3460,11 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W45" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="X45" t="b">
         <v>1</v>
@@ -3483,21 +3475,25 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
+          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>amenity=restaurant</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
           <t>done</t>
@@ -3505,29 +3501,21 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
@@ -3538,11 +3526,11 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W46" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="X46" t="b">
         <v>1</v>
@@ -3553,21 +3541,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
+          <t>What areas are within a quarter mile of a store in Gresham</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>shop=*</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
           <t>done</t>
@@ -3575,29 +3567,21 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
@@ -3608,11 +3592,11 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W47" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="X47" t="b">
         <v>1</v>
@@ -3623,23 +3607,23 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
+          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>highway=motorway, building=house</t>
+          <t>railway=tram_stop, light_rail</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3662,11 +3646,7 @@
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -3678,11 +3658,11 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W48" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="X48" t="b">
         <v>1</v>
@@ -3693,25 +3673,21 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
+          <t>What areas are within a quarter mile of planned commercial district in Gresham</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>leisure=park, building=house</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>done</t>
@@ -3719,22 +3695,22 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
           <t>Buffer</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="M49" t="inlineStr"/>
@@ -3748,11 +3724,11 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W49" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="X49" t="b">
         <v>1</v>
@@ -3763,23 +3739,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>What houses are for sale in urban areas in Utrecht</t>
+          <t>What areas are within one mile of main roads in Loudoun County in US</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3794,12 +3774,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -3814,11 +3794,11 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W50" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="X50" t="b">
         <v>1</v>
@@ -3829,19 +3809,23 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>What is the area of currently mixed use zones in Gresham</t>
+          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Gresham</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
@@ -3859,8 +3843,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -3872,11 +3864,11 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W51" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="X51" t="b">
         <v>1</v>
@@ -3887,24 +3879,20 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
+          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">the Western USA </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>from 1970 to 1994</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
@@ -3913,17 +3901,29 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
@@ -3934,11 +3934,11 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W52" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="X52" t="b">
         <v>1</v>
@@ -3949,25 +3949,21 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>What is the density surface of rainfall measurements in the Netherlands</t>
+          <t>What areas do have slope larger than 10 percent in Spain</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>the Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
           <t>done</t>
@@ -3975,17 +3971,29 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
@@ -3996,11 +4004,11 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W53" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="X53" t="b">
         <v>1</v>
@@ -4011,23 +4019,23 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>What is the density surface of temperature measurements in Oleander city</t>
+          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Oleander city</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
+          <t>monitoring:weather=yes</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4037,17 +4045,29 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
@@ -4058,11 +4078,11 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W54" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="X54" t="b">
         <v>1</v>
@@ -4073,16 +4093,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to green areas in Amsterdam</t>
+          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -4095,17 +4115,29 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
@@ -4116,11 +4148,11 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W55" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="X55" t="b">
         <v>1</v>
@@ -4131,25 +4163,21 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to hospitals in Oleander</t>
+          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>amenity=hospital</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
           <t>done</t>
@@ -4157,17 +4185,29 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
@@ -4178,11 +4218,11 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W56" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="X56" t="b">
         <v>1</v>
@@ -4193,25 +4233,21 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
+          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>landuse=recreation_ground</t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
           <t>done</t>
@@ -4219,17 +4255,29 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
@@ -4240,11 +4288,11 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W57" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="X57" t="b">
         <v>1</v>
@@ -4255,11 +4303,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to schools in Utrecht</t>
+          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4271,7 +4319,7 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>highway=motorway, building=house</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4286,11 +4334,19 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -4302,11 +4358,11 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W58" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="X58" t="b">
         <v>1</v>
@@ -4317,21 +4373,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
+          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>amenity=school, building=house</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
           <t>done</t>
@@ -4339,17 +4399,29 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
@@ -4360,11 +4432,11 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W59" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="X59" t="b">
         <v>1</v>
@@ -4375,21 +4447,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
+          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>shop=*, building=house</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
           <t>done</t>
@@ -4397,17 +4473,29 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
@@ -4418,11 +4506,11 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W60" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="X60" t="b">
         <v>1</v>
@@ -4433,21 +4521,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>leisure=park, building=house</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
           <t>done</t>
@@ -4460,11 +4552,19 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -4476,11 +4576,11 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W61" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="X61" t="b">
         <v>1</v>
@@ -4491,25 +4591,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>What is the kernel density of crime in Surrey in UK</t>
+          <t>What houses are for sale in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Surrey</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>boundary=urban, building=house</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
           <t>done</t>
@@ -4522,10 +4622,14 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -4538,11 +4642,11 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W62" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="X62" t="b">
         <v>1</v>
@@ -4553,23 +4657,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>What is the kernel density of traffic accidents in Pasadena</t>
+          <t>What is the area of currently mixed use zones in Gresham</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Pasadena</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
+          <t>Gresham</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
@@ -4579,12 +4679,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -4600,11 +4700,11 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="W63" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="X63" t="b">
         <v>1</v>
@@ -4615,25 +4715,21 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>What is the land use in Netherlands</t>
+          <t>What is the average rating of street pavement for each borough in New York City</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>landuse=*</t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
           <t>done</t>
@@ -4641,12 +4737,24 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+          <t>Data editing</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Data editing</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -4658,11 +4766,11 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="W64" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="X64" t="b">
         <v>1</v>
@@ -4673,21 +4781,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>What is the land use in the Happy Valley resort</t>
+          <t>What is the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>the Happy Valley resort</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>amenity=bank</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
           <t>done</t>
@@ -4698,8 +4810,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -4712,11 +4832,11 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="W65" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="X65" t="b">
         <v>1</v>
@@ -4727,21 +4847,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>What is the literacy rate for each country in Africa</t>
+          <t>What is the central feature of fire station in Fort Worth</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
           <t>done</t>
@@ -4749,15 +4873,19 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -4770,11 +4898,11 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="W66" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="X66" t="b">
         <v>1</v>
@@ -4785,22 +4913,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
+          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>the Western USA</t>
+          <t xml:space="preserve">the Western USA </t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from 1970 to 1994</t>
+          <t>from 1970 to 1994</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -4811,7 +4939,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4847,21 +4975,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
+          <t>What is the density surface of rainfall measurements in the Netherlands</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>the Netherlands</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
           <t>done</t>
@@ -4905,11 +5037,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
+          <t>What is the density surface of temperature measurements in Oleander city</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4919,7 +5051,11 @@
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
           <t>done</t>
@@ -4963,25 +5099,21 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
+          <t>What is the Euclidean distance to green areas in Amsterdam</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=library</t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
           <t>done</t>
@@ -4994,19 +5126,11 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -5018,11 +5142,11 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W70" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="X70" t="b">
         <v>1</v>
@@ -5033,23 +5157,23 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
+          <t>What is the Euclidean distance to hospitals in Oleander</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>shop=alcohol, leisure=park</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5064,19 +5188,11 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5088,11 +5204,11 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W71" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="X71" t="b">
         <v>1</v>
@@ -5103,23 +5219,23 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
+          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=school</t>
+          <t>landuse=recreation_ground</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5134,19 +5250,11 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -5158,11 +5266,11 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W72" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="X72" t="b">
         <v>1</v>
@@ -5173,23 +5281,23 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+          <t>What is the Euclidean distance to schools in Utrecht</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5204,19 +5312,11 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5228,11 +5328,11 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W73" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="X73" t="b">
         <v>1</v>
@@ -5243,25 +5343,21 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Where are forestry lands in Happy Valley ski resort</t>
+          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Tag:landuse=forestry</t>
-        </is>
-      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
           <t>done</t>
@@ -5272,7 +5368,11 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -5286,11 +5386,11 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W74" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="X74" t="b">
         <v>1</v>
@@ -5301,25 +5401,21 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Where are not conservation areas in UK</t>
+          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Crook, Deschutes, Jefferson county</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>landuse=conservation</t>
-        </is>
-      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
           <t>done</t>
@@ -5332,14 +5428,10 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
@@ -5352,11 +5444,11 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W75" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="X75" t="b">
         <v>1</v>
@@ -5367,29 +5459,21 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Where are not protected region in Assam </t>
+          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>landuse=conservation</t>
-        </is>
-      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
           <t>done</t>
@@ -5402,14 +5486,10 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -5422,11 +5502,11 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W76" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="X76" t="b">
         <v>1</v>
@@ -5437,25 +5517,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Where are the commercial areas in Amsterdam</t>
+          <t>What is the kernel density of crime in Surrey in UK</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
+          <t>Surrey</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>landuse=commercial</t>
-        </is>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
           <t>done</t>
@@ -5468,14 +5548,10 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -5488,11 +5564,11 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W77" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="X77" t="b">
         <v>1</v>
@@ -5503,25 +5579,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Where are the fire stations in Utrecht</t>
+          <t>What is the kernel density of traffic accidents in Pasadena</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
+          <t>Pasadena</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
           <t>done</t>
@@ -5534,14 +5610,10 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
@@ -5554,11 +5626,11 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W78" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="X78" t="b">
         <v>1</v>
@@ -5569,21 +5641,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Where are the five star hotels in the Happy Valley ski resort</t>
+          <t>What is the land use in Netherlands</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>the Happy Valley ski resort</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>landuse=*</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr">
         <is>
           <t>done</t>
@@ -5594,16 +5670,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
@@ -5616,11 +5684,11 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="W79" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X79" t="b">
         <v>1</v>
@@ -5631,29 +5699,21 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Where are the Hispanic food stores in Tarrant County</t>
+          <t>What is the land use in the Happy Valley resort</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>the Happy Valley resort</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>cuisine=latin_american</t>
-        </is>
-      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
           <t>done</t>
@@ -5664,16 +5724,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
@@ -5686,11 +5738,11 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="W80" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X80" t="b">
         <v>1</v>
@@ -5701,25 +5753,21 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Where are the industrial areas in Utrecht</t>
+          <t>What is the literacy rate for each country in Africa</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>landuse=industrial</t>
-        </is>
-      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
           <t>done</t>
@@ -5727,19 +5775,15 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
@@ -5752,11 +5796,11 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="W81" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X81" t="b">
         <v>1</v>
@@ -5767,25 +5811,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>the Western USA</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>beds=*, tourism=hotel</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 1970 to 1994</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
           <t>done</t>
@@ -5793,19 +5837,15 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
@@ -5818,11 +5858,11 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="W82" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X82" t="b">
         <v>1</v>
@@ -5833,25 +5873,21 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Where are the rocky areas in Spain</t>
+          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>nature : bare_rock</t>
-        </is>
-      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
           <t>done</t>
@@ -5864,14 +5900,10 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
@@ -5884,11 +5916,11 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W83" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="X83" t="b">
         <v>1</v>
@@ -5899,25 +5931,21 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Where are the ski pistes in Happy Valley ski resort</t>
+          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Oleander city</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>site=piste</t>
-        </is>
-      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
           <t>done</t>
@@ -5930,14 +5958,10 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
@@ -5950,11 +5974,11 @@
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="W84" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="X84" t="b">
         <v>1</v>
@@ -5965,25 +5989,21 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Which houses are for sale in Utrecht</t>
+          <t>What is the mean center of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>building=house</t>
-        </is>
-      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
           <t>done</t>
@@ -5991,15 +6011,19 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
@@ -6012,11 +6036,11 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="W85" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="X85" t="b">
         <v>1</v>
@@ -6027,25 +6051,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
+          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
           <t>done</t>
@@ -6058,24 +6082,16 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
@@ -6086,11 +6102,11 @@
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="W86" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X86" t="b">
         <v>1</v>
@@ -6101,25 +6117,21 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>year_of_construction=*</t>
-        </is>
-      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
           <t>done</t>
@@ -6130,8 +6142,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
@@ -6144,11 +6164,11 @@
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="W87" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="X87" t="b">
         <v>1</v>
@@ -6159,25 +6179,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Which land use contains meteorological stations in Netherlands</t>
+          <t>What is the median household income for each census block in Tarrant County</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
-        </is>
-      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
           <t>done</t>
@@ -6185,7 +6205,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6195,10 +6215,14 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -6210,11 +6234,11 @@
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="W88" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="X88" t="b">
         <v>1</v>
@@ -6225,25 +6249,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Which park is biggest in Utrecht</t>
+          <t>What is the median people age for each census tract in Tarrant County</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>leisure=park</t>
-        </is>
-      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
           <t>done</t>
@@ -6251,20 +6275,24 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -6276,11 +6304,11 @@
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="W89" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="X89" t="b">
         <v>1</v>
@@ -6291,23 +6319,23 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>opening_hours=*</t>
+          <t>shop=alcohol, amenity=library</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -6320,9 +6348,21 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -6334,11 +6374,11 @@
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W90" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="X90" t="b">
         <v>1</v>
@@ -6349,23 +6389,23 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>abandoned:*=*, highway=motorway</t>
+          <t>shop=alcohol, leisure=park</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6419,23 +6459,23 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Which visitor facilities are in the Happy Valley</t>
+          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>information=visitor_centre</t>
+          <t>shop=alcohol, amenity=school</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -6448,9 +6488,21 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -6462,11 +6514,11 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W92" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="X92" t="b">
         <v>1</v>
@@ -6474,24 +6526,28 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>What are the land use inside the flood zones in Oleander</t>
+          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
           <t>done</t>
@@ -6504,15 +6560,19 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -6524,38 +6584,38 @@
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W93" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="X93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>What areas are not park in Houston</t>
+          <t>Where are forestry lands in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>leisure=park</t>
+          <t>Tag:landuse=forestry</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -6589,31 +6649,31 @@
         <v>1</v>
       </c>
       <c r="X94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
+          <t>Where are not conservation areas in UK</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>leisure=nature_reserve</t>
+          <t>landuse=conservation</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -6628,12 +6688,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L95" t="inlineStr"/>
@@ -6648,38 +6708,42 @@
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W95" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>What areas are outside 300 meters from streams in Houston</t>
+          <t xml:space="preserve">Where are not protected region in Assam </t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Houston</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>waterway=stream</t>
+          <t>landuse=conservation</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -6694,12 +6758,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L96" t="inlineStr"/>
@@ -6714,38 +6778,38 @@
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W96" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>What areas are outside 5000 meters of the roads in Spain</t>
+          <t>Where are the commercial areas in Amsterdam</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>landuse=commercial</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -6760,12 +6824,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L97" t="inlineStr"/>
@@ -6780,38 +6844,38 @@
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W97" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>What areas are within 300 meters of runways in Schiphol airport</t>
+          <t>Where are the fire stations in Utrecht</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Schiphol airport</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>aeroway=runway</t>
+          <t>amenity=fire_station</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -6826,12 +6890,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L98" t="inlineStr"/>
@@ -6846,40 +6910,36 @@
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W98" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
+          <t>Where are the five star hotels in the Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>the Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>landuse=religious</t>
-        </is>
-      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
           <t>done</t>
@@ -6892,12 +6952,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L99" t="inlineStr"/>
@@ -6912,38 +6972,42 @@
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W99" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
+          <t>Where are the Hispanic food stores in Tarrant County</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> aeroway=*</t>
+          <t>cuisine=latin_american</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -6958,24 +7022,16 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
@@ -6986,38 +7042,38 @@
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a store in Gresham</t>
+          <t>Where are the industrial areas in Utrecht</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>shop=*</t>
+          <t>landuse=industrial</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -7032,12 +7088,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L101" t="inlineStr"/>
@@ -7052,36 +7108,40 @@
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W101" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>What areas do have slope larger than 10 percent in Spain</t>
+          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>beds=*, tourism=hotel</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr">
         <is>
           <t>done</t>
@@ -7089,12 +7149,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7102,16 +7162,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
@@ -7122,38 +7174,38 @@
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W102" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="X102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>What is the density surface of rainfall measurements in the Netherlands</t>
+          <t>Where are the rocky areas in Spain</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>the Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
+          <t>nature : bare_rock</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -7168,10 +7220,14 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
@@ -7184,38 +7240,38 @@
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W103" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="X103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>What is the density surface of temperature measurements in Oleander city</t>
+          <t>Where are the ski pistes in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Oleander city</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
+          <t>site=piste</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -7230,10 +7286,14 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
@@ -7246,40 +7306,40 @@
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W104" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="X104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>What is the kernel density of crime in Surrey in UK</t>
+          <t>Which houses are for sale in Utrecht</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Surrey</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>building=house</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr">
         <is>
           <t>done</t>
@@ -7287,12 +7347,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K105" t="inlineStr"/>
@@ -7308,38 +7368,38 @@
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="W105" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="X105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>What is the land use in Netherlands</t>
+          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>landuse=*</t>
+          <t>amenity=fire_station</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -7352,10 +7412,26 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
@@ -7366,38 +7442,38 @@
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Where are the industrial areas in Utrecht</t>
+          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>landuse=industrial</t>
+          <t>amenity=fire_station</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -7412,7 +7488,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -7420,10 +7496,26 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
@@ -7432,38 +7524,38 @@
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W107" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="X107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Where are the rocky areas in Spain</t>
+          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>nature : bare_rock</t>
+          <t>year_of_construction=*</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -7476,16 +7568,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
@@ -7498,38 +7582,38 @@
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="W108" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Which houses are for sale in Utrecht</t>
+          <t>Which land use contains meteorological stations in Netherlands</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>building=house</t>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -7539,15 +7623,19 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
@@ -7560,38 +7648,38 @@
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W109" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="X109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+          <t>Which park is biggest in Utrecht</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>abandoned:*=*, highway=motorway</t>
+          <t>leisure=park</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -7606,19 +7694,15 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -7630,13 +7714,1709 @@
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr">
         <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="W110" t="n">
+        <v>8</v>
+      </c>
+      <c r="X110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>131</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="W111" t="n">
+        <v>5</v>
+      </c>
+      <c r="X111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>132</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>opening_hours=*</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="W112" t="n">
+        <v>1</v>
+      </c>
+      <c r="X112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>133</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Hillsboro</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>abandoned:*=*, highway=motorway</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr">
+        <is>
           <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
-      <c r="W110" t="n">
+      <c r="W113" t="n">
         <v>21</v>
       </c>
-      <c r="X110" t="b">
+      <c r="X113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>134</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Which visitor facilities are in the Happy Valley</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>the Happy Valley</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>information=visitor_centre</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="W114" t="n">
+        <v>1</v>
+      </c>
+      <c r="X114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>135</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="W115" t="n">
+        <v>4</v>
+      </c>
+      <c r="X115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>How many luxury hotels are in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>tourism=hotel, stars=*</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="W116" t="n">
+        <v>1</v>
+      </c>
+      <c r="X116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B117" t="n">
+        <v>13</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>What area are within 50 km from family physician services in Saskatchewan</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>amenity=doctor</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis</t>
+        </is>
+      </c>
+      <c r="W117" t="n">
+        <v>10</v>
+      </c>
+      <c r="X117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B118" t="n">
+        <v>15</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>What areas are inside 1000 foot of schools in El Cajon</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>El Cajon</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>amenity=school, amenity=kindergarten</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis</t>
+        </is>
+      </c>
+      <c r="W118" t="n">
+        <v>10</v>
+      </c>
+      <c r="X118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B119" t="n">
+        <v>22</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>What areas are outside 150 meters from hospitals in Houston</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>amenity=hospital</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis</t>
+        </is>
+      </c>
+      <c r="W119" t="n">
+        <v>10</v>
+      </c>
+      <c r="X119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B120" t="n">
+        <v>31</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>What areas are outside 60 meters from water body in Houston</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>landuse=aquaculture, basin, salt_pond</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis</t>
+        </is>
+      </c>
+      <c r="W120" t="n">
+        <v>10</v>
+      </c>
+      <c r="X120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B121" t="n">
+        <v>36</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What areas are within 1000 meters of roads in Assam </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis</t>
+        </is>
+      </c>
+      <c r="W121" t="n">
+        <v>10</v>
+      </c>
+      <c r="X121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B122" t="n">
+        <v>39</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>What areas are within 1000 meters of the schools in Oleander</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>amenity=school</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis</t>
+        </is>
+      </c>
+      <c r="W122" t="n">
+        <v>10</v>
+      </c>
+      <c r="X122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B123" t="n">
+        <v>56</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Topography</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="W123" t="n">
+        <v>17</v>
+      </c>
+      <c r="X123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B124" t="n">
+        <v>73</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>What is the average rating of street pavement for each borough in New York City</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Data editing</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Data editing</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="W124" t="n">
+        <v>26</v>
+      </c>
+      <c r="X124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B125" t="n">
+        <v>78</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">the Western USA </t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>from 1970 to 1994</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Data editing</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>data editing,data queries</t>
+        </is>
+      </c>
+      <c r="W125" t="n">
+        <v>9</v>
+      </c>
+      <c r="X125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B126" t="n">
+        <v>87</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>landuse=recreation_ground</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="W126" t="n">
+        <v>32</v>
+      </c>
+      <c r="X126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B127" t="n">
+        <v>89</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="W127" t="n">
+        <v>32</v>
+      </c>
+      <c r="X127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B128" t="n">
+        <v>99</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Oleander city</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="W128" t="n">
+        <v>32</v>
+      </c>
+      <c r="X128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B129" t="n">
+        <v>102</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+        </is>
+      </c>
+      <c r="W129" t="n">
+        <v>35</v>
+      </c>
+      <c r="X129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B130" t="n">
+        <v>106</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>El Cajon</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>shop=alcohol, amenity=library</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="W130" t="n">
+        <v>21</v>
+      </c>
+      <c r="X130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B131" t="n">
+        <v>121</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Where are the rocky areas in Spain</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>nature : bare_rock</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="W131" t="n">
+        <v>8</v>
+      </c>
+      <c r="X131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B132" t="n">
+        <v>122</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Where are the ski pistes in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>site=piste</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="W132" t="n">
+        <v>8</v>
+      </c>
+      <c r="X132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B133" t="n">
+        <v>125</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="W133" t="n">
+        <v>0</v>
+      </c>
+      <c r="X133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B134" t="n">
+        <v>127</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>year_of_construction=*</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="W134" t="n">
+        <v>1</v>
+      </c>
+      <c r="X134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B135" t="n">
+        <v>128</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Which land use contains meteorological stations in Netherlands</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="W135" t="n">
+        <v>2</v>
+      </c>
+      <c r="X135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B136" t="n">
+        <v>135</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="W136" t="n">
+        <v>4</v>
+      </c>
+      <c r="X136" t="b">
         <v>0</v>
       </c>
     </row>

--- a/textToOps/data/processed/train_test_only_paraphrased.xlsx
+++ b/textToOps/data/processed/train_test_only_paraphrased.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA170"/>
+  <dimension ref="A1:AA183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10493,28 +10493,24 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>What areas are inside 1000 foot of schools in El Cajon</t>
+          <t>What are the areas within a four-minute drive of each fire station at 2 a.m. on Tuesday in Utrecht</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>amenity=school, amenity=kindergarten</t>
-        </is>
-      </c>
+      <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
           <t>done</t>
@@ -10527,16 +10523,24 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
@@ -10550,11 +10554,11 @@
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Z144" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA144" t="b">
         <v>0</v>
@@ -10562,24 +10566,32 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>What areas are not conatined as green belt areas in Houston</t>
+          <t>What area are within 50 km from family physician services in Saskatchewan in Canada</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Houston</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>amenity=doctor</t>
+        </is>
+      </c>
       <c r="H145" t="inlineStr">
         <is>
           <t>done</t>
@@ -10592,10 +10604,14 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
@@ -10611,11 +10627,11 @@
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Z145" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA145" t="b">
         <v>0</v>
@@ -10623,26 +10639,26 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>What areas are not park in Houston</t>
+          <t>What areas are inside 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t>leisure=park</t>
+          <t>amenity=school, amenity=kindergarten</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -10655,8 +10671,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
@@ -10672,11 +10696,11 @@
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Z146" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AA146" t="b">
         <v>0</v>
@@ -10684,28 +10708,24 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
+          <t>What areas are green belt areas in Houston</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>residential=*</t>
-        </is>
-      </c>
+      <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
           <t>done</t>
@@ -10718,14 +10738,10 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
@@ -10741,11 +10757,11 @@
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Z147" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA147" t="b">
         <v>0</v>
@@ -10753,28 +10769,24 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>What areas are outside 3000 meters of the rivers in Spain</t>
+          <t>What areas are not conatined as green belt areas in Houston</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>waterway=river</t>
-        </is>
-      </c>
+      <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
           <t>done</t>
@@ -10787,14 +10799,10 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
@@ -10810,11 +10818,11 @@
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Z148" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA148" t="b">
         <v>0</v>
@@ -10822,26 +10830,26 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>What areas are within 10 miles of current transmission lines with a voltage greater than 400 in Colorado</t>
+          <t>What areas are not park in Houston</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>power=line</t>
+          <t>leisure=park</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -10854,16 +10862,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
@@ -10879,11 +10879,11 @@
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Z149" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA149" t="b">
         <v>0</v>
@@ -10891,26 +10891,26 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
+          <t>What areas are not wetlands in Houston</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>leisure=playground</t>
+          <t>natural=wetland</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -10923,16 +10923,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
@@ -10948,11 +10940,11 @@
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Z150" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA150" t="b">
         <v>0</v>
@@ -10960,24 +10952,28 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>residential=*</t>
+        </is>
+      </c>
       <c r="H151" t="inlineStr">
         <is>
           <t>done</t>
@@ -10990,34 +10986,18 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="O151" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
@@ -11025,19 +11005,15 @@
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr"/>
-      <c r="W151" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Z151" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AA151" t="b">
         <v>0</v>
@@ -11045,26 +11021,26 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
+          <t>What areas are outside 3000 meters of the rivers in Spain</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> aeroway=*</t>
+          <t>waterway=river</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -11079,24 +11055,16 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
@@ -11110,11 +11078,11 @@
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Z152" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA152" t="b">
         <v>0</v>
@@ -11122,24 +11090,28 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas are within 10 miles of current transmission lines with a voltage greater than 400 in Colorado</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>power=line</t>
+        </is>
+      </c>
       <c r="H153" t="inlineStr">
         <is>
           <t>done</t>
@@ -11147,29 +11119,21 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
@@ -11183,11 +11147,11 @@
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Z153" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AA153" t="b">
         <v>0</v>
@@ -11195,24 +11159,28 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
+          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>leisure=playground</t>
+        </is>
+      </c>
       <c r="H154" t="inlineStr">
         <is>
           <t>done</t>
@@ -11220,29 +11188,21 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
@@ -11256,11 +11216,11 @@
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Z154" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AA154" t="b">
         <v>0</v>
@@ -11268,28 +11228,24 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>amenity=school, building=house</t>
-        </is>
-      </c>
+      <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
           <t>done</t>
@@ -11297,31 +11253,39 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
@@ -11329,15 +11293,19 @@
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr"/>
-      <c r="W155" t="inlineStr"/>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
         </is>
       </c>
       <c r="Z155" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AA155" t="b">
         <v>0</v>
@@ -11345,26 +11313,26 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>What houses are greather than 30 square meters in urban areas in Utrecht</t>
+          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Crook, Deschutes, Jefferson county</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t xml:space="preserve"> aeroway=*</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -11379,16 +11347,24 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
@@ -11398,19 +11374,15 @@
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="inlineStr"/>
-      <c r="W156" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="W156" t="inlineStr"/>
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Z156" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA156" t="b">
         <v>0</v>
@@ -11418,26 +11390,30 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>What is the central feature of bank branches in Oleander</t>
+          <t>What areas are within one mile of main roads in Loudoun County in US</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -11452,12 +11428,12 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L157" t="inlineStr"/>
@@ -11470,20 +11446,16 @@
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr"/>
-      <c r="V157" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
+      <c r="V157" t="inlineStr"/>
       <c r="W157" t="inlineStr"/>
       <c r="X157" t="inlineStr"/>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Z157" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="AA157" t="b">
         <v>0</v>
@@ -11491,28 +11463,24 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>What is the density surface of temperature measurements in Oleander city</t>
+          <t>What areas have an annual amount of snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Oleander city</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
-        </is>
-      </c>
+      <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
           <t>done</t>
@@ -11520,17 +11488,29 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
@@ -11544,11 +11524,11 @@
       <c r="X158" t="inlineStr"/>
       <c r="Y158" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Z158" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AA158" t="b">
         <v>0</v>
@@ -11556,19 +11536,19 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
+          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
@@ -11581,17 +11561,29 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
@@ -11605,11 +11597,11 @@
       <c r="X159" t="inlineStr"/>
       <c r="Y159" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Z159" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AA159" t="b">
         <v>0</v>
@@ -11617,19 +11609,19 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
+          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Oleander city</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -11642,17 +11634,29 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr"/>
@@ -11666,11 +11670,11 @@
       <c r="X160" t="inlineStr"/>
       <c r="Y160" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Z160" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AA160" t="b">
         <v>0</v>
@@ -11678,24 +11682,28 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
+          <t>What houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>amenity=school, building=house</t>
+        </is>
+      </c>
       <c r="H161" t="inlineStr">
         <is>
           <t>done</t>
@@ -11703,21 +11711,29 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
@@ -11731,11 +11747,11 @@
       <c r="X161" t="inlineStr"/>
       <c r="Y161" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z161" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AA161" t="b">
         <v>0</v>
@@ -11743,28 +11759,28 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>What is the median household income for each census block in Tarrant County in Texas</t>
+          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>amenity=school, building=house</t>
+        </is>
+      </c>
       <c r="H162" t="inlineStr">
         <is>
           <t>done</t>
@@ -11772,25 +11788,29 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
@@ -11804,11 +11824,11 @@
       <c r="X162" t="inlineStr"/>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z162" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA162" t="b">
         <v>0</v>
@@ -11816,28 +11836,28 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
+          <t>What houses are for sale in flood zone in Utrecht</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>boundary=urban, building=house</t>
+        </is>
+      </c>
       <c r="H163" t="inlineStr">
         <is>
           <t>done</t>
@@ -11845,7 +11865,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -11855,14 +11875,10 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
@@ -11873,15 +11889,19 @@
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
       <c r="V163" t="inlineStr"/>
-      <c r="W163" t="inlineStr"/>
+      <c r="W163" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="X163" t="inlineStr"/>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
         </is>
       </c>
       <c r="Z163" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA163" t="b">
         <v>0</v>
@@ -11889,30 +11909,26 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Where are not protected region in Assam in India</t>
+          <t>What houses are greather than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr">
         <is>
-          <t>landuse=conservation</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -11927,7 +11943,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -11946,15 +11962,19 @@
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr"/>
       <c r="V164" t="inlineStr"/>
-      <c r="W164" t="inlineStr"/>
+      <c r="W164" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="X164" t="inlineStr"/>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
         </is>
       </c>
       <c r="Z164" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="AA164" t="b">
         <v>0</v>
@@ -11962,26 +11982,26 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Where are the rocky areas in Spain</t>
+          <t>What is the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
-          <t>nature : bare_rock</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -11996,12 +12016,12 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="L165" t="inlineStr"/>
@@ -12014,16 +12034,20 @@
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
-      <c r="V165" t="inlineStr"/>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
       <c r="W165" t="inlineStr"/>
       <c r="X165" t="inlineStr"/>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
         </is>
       </c>
       <c r="Z165" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA165" t="b">
         <v>0</v>
@@ -12031,26 +12055,26 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Which houses are for sale in Utrecht</t>
+          <t>What is the density surface of temperature measurements in Oleander city</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander city</t>
         </is>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
-          <t>building=house</t>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -12060,12 +12084,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="K166" t="inlineStr"/>
@@ -12084,11 +12108,11 @@
       <c r="X166" t="inlineStr"/>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z166" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="AA166" t="b">
         <v>0</v>
@@ -12096,28 +12120,24 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+          <t>What is the Euclidean distance to green areas in Amsterdam</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>year_of_construction=*</t>
-        </is>
-      </c>
+      <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
           <t>done</t>
@@ -12128,7 +12148,11 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
@@ -12145,11 +12169,11 @@
       <c r="X167" t="inlineStr"/>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z167" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="AA167" t="b">
         <v>0</v>
@@ -12157,28 +12181,24 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Crook, Deschutes, Jefferson county</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>amenity=fire_station, amenity=school</t>
-        </is>
-      </c>
+      <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
           <t>done</t>
@@ -12191,29 +12211,13 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr"/>
       <c r="Q168" t="inlineStr"/>
@@ -12226,11 +12230,11 @@
       <c r="X168" t="inlineStr"/>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z168" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="AA168" t="b">
         <v>0</v>
@@ -12238,28 +12242,28 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
+          <t>the Western USA</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>abandoned:*=*, highway=motorway</t>
-        </is>
-      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 1970 to 1994</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
           <t>done</t>
@@ -12267,24 +12271,16 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
@@ -12299,11 +12295,11 @@
       <c r="X169" t="inlineStr"/>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Z169" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AA169" t="b">
         <v>0</v>
@@ -12311,28 +12307,24 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
+          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Oleander city</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>highway=*</t>
-        </is>
-      </c>
+      <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
           <t>done</t>
@@ -12345,14 +12337,10 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>network analysis</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
@@ -12368,13 +12356,926 @@
       <c r="X170" t="inlineStr"/>
       <c r="Y170" t="inlineStr">
         <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Z170" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>134</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Z171" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>139</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>What is the median household income for each census block in Tarrant County in Texas</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Z172" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>141</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Z173" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>149</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>El Cajon</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>shop=alcohol, amenity=school</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Z174" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>153</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Where are not protected region in Assam in India</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>landuse=conservation</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Z175" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>156</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Where are the commercial areas in Amsterdam</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>landuse=commercial</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Z176" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>164</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Where are the rocky areas in Spain</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>nature : bare_rock</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Z177" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>167</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Which houses are for sale in Utrecht</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>building=house</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr">
+        <is>
+          <t>data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Z178" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>170</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>year_of_construction=*</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Z179" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>177</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Z180" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>179</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Hillsboro</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>abandoned:*=*, highway=motorway</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Z181" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>183</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr">
+        <is>
           <t>data queries,network analysis,data queries</t>
         </is>
       </c>
-      <c r="Z170" t="n">
+      <c r="Z182" t="n">
         <v>4</v>
       </c>
-      <c r="AA170" t="b">
+      <c r="AA182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>185</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Z183" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA183" t="b">
         <v>0</v>
       </c>
     </row>
